--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MONTANA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MONTANA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C16">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C21">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C46">
@@ -1020,12 +1020,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C48">
@@ -1038,7 +1038,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C49">
@@ -1121,7 +1121,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C55">
@@ -1225,7 +1225,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C63">
@@ -1238,7 +1238,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C64">
@@ -1251,7 +1251,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C65">
@@ -1264,7 +1264,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C66">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C69">
@@ -1321,7 +1321,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C70">
@@ -1412,7 +1412,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C77">
@@ -1425,7 +1425,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C78">
@@ -1500,7 +1500,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C83">
@@ -1552,7 +1552,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C87">
@@ -1565,7 +1565,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C88">
@@ -1578,7 +1578,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C89">
@@ -1617,7 +1617,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C92">
@@ -1630,7 +1630,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C93">
@@ -1682,7 +1682,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C135">
@@ -2279,7 +2279,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C141">
@@ -2388,7 +2388,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C149">
@@ -2647,7 +2647,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C176">
@@ -2904,7 +2904,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C186">
@@ -2943,7 +2943,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C189">
@@ -2951,41 +2951,6 @@
       </c>
       <c r="D189">
         <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MONTANA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MONTANA_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Hecelchakán</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Amatán</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Pueblo Nuevo Solistahuacán</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Janos</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>León</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Churumuco</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -1802,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1815,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1828,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1841,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Xalisco</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Santa María Chimalapa</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Santa María Peñoles</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Santiago Choápam</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Zapotitlán Palmas</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Nicolás Bravo</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2103,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2116,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -2129,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -2142,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2155,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -2168,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2181,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2212,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -2225,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -2238,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -2251,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -2264,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2277,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2290,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2321,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -2334,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -2347,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2360,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2373,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -2386,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2399,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2430,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -2443,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2474,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -2487,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -2500,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Yécora</t>
@@ -2513,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2544,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2575,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2588,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2619,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -2632,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2663,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2676,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Chinameca</t>
@@ -2689,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2702,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -2715,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2728,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2741,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2754,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -2767,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2780,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -2793,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -2806,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2819,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -2832,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2845,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2858,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2889,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -2902,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -2915,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2928,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Total</t>
